--- a/immune_data/id_key.xlsx
+++ b/immune_data/id_key.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -136,15 +136,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,6 +396,17 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/immune_data/id_key.xlsx
+++ b/immune_data/id_key.xlsx
@@ -31,16 +31,16 @@
     <t xml:space="preserve">cross</t>
   </si>
   <si>
-    <t xml:space="preserve">ii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx</t>
+    <t xml:space="preserve">AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
   </si>
 </sst>
 </file>
@@ -115,12 +115,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -249,8 +253,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -273,7 +277,7 @@
       <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -284,7 +288,7 @@
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -295,7 +299,7 @@
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -306,7 +310,7 @@
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -317,7 +321,7 @@
       <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -328,7 +332,7 @@
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -339,7 +343,7 @@
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -350,7 +354,7 @@
       <c r="B9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -361,7 +365,7 @@
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -372,7 +376,7 @@
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -383,7 +387,7 @@
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -394,15 +398,15 @@
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
